--- a/ARTEFAKTNI MODEL.xlsx
+++ b/ARTEFAKTNI MODEL.xlsx
@@ -342,7 +342,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100" baseline="0"/>
-            <a:t> BIBLIJA</a:t>
+            <a:t> BIBLIJA (AB)</a:t>
           </a:r>
           <a:endParaRPr lang="sl-SI" sz="1100"/>
         </a:p>
@@ -398,7 +398,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>TEHNIČNI DOKUMENT</a:t>
+            <a:t>TEHNIČNI DOKUMENT (TDD)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -453,11 +453,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>NAČRT</a:t>
+            <a:t>DOKUMENT</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100" baseline="0"/>
-            <a:t> IGRE</a:t>
+            <a:t> OBLIKOVANJA IGRE (GDD)</a:t>
           </a:r>
           <a:endParaRPr lang="sl-SI" sz="1100"/>
         </a:p>
@@ -468,15 +468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -485,8 +485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="3737610"/>
-          <a:ext cx="4610100" cy="278130"/>
+          <a:off x="1005840" y="3638550"/>
+          <a:ext cx="1318260" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,13 +782,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -832,13 +832,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -882,13 +882,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -934,13 +934,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -984,13 +984,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1036,13 +1036,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1088,13 +1088,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1161,31 +1161,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>278130</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>43814</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="65" name="Kolenski povezovalnik 64"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="18" idx="0"/>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="52" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3147060" y="3204210"/>
-          <a:ext cx="179070" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3505200" y="3204209"/>
+          <a:ext cx="121920" cy="497205"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -187500"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -1193,13 +1195,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1210,14 +1212,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>424180</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
@@ -1230,13 +1232,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1021080" y="3876675"/>
-          <a:ext cx="12700" cy="569596"/>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="1005840" y="3777615"/>
+          <a:ext cx="15240" cy="668656"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 1800000"/>
+            <a:gd name="adj1" fmla="val -1500000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1245,13 +1247,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1295,13 +1297,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1347,13 +1349,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1397,13 +1399,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1444,13 +1446,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1714,65 +1716,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>2442</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Kolenski povezovalnik 95"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="0"/>
-          <a:endCxn id="10" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2898189" y="2538681"/>
-          <a:ext cx="855882" cy="2484120"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 77599"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2512,6 +2462,214 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Pravokotnik 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3627120" y="3531870"/>
+          <a:ext cx="960120" cy="339090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100"/>
+            <a:t>SREDSTVA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Kolenski povezovalnik 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1731645" y="3286125"/>
+          <a:ext cx="285750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Kolenski povezovalnik 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4587240" y="3329940"/>
+          <a:ext cx="251460" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255270</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Kolenski povezovalnik 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2926764" y="3028266"/>
+          <a:ext cx="337722" cy="2023110"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2812,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ARTEFAKTNI MODEL.xlsx
+++ b/ARTEFAKTNI MODEL.xlsx
@@ -292,16 +292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -310,8 +310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505200" y="3055620"/>
-          <a:ext cx="2125980" cy="297180"/>
+          <a:off x="3962400" y="3672840"/>
+          <a:ext cx="1607820" cy="281940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -338,13 +338,12 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>UMETNIŠKA</a:t>
+            <a:t>UMETNIKOVA</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100" baseline="0"/>
-            <a:t> BIBLIJA (AB)</a:t>
+            <a:t> BIBLIJA</a:t>
           </a:r>
-          <a:endParaRPr lang="sl-SI" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -358,8 +357,8 @@
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -371,7 +370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1021080" y="3055620"/>
-          <a:ext cx="2125980" cy="297180"/>
+          <a:ext cx="4610100" cy="297180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -398,8 +397,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>TEHNIČNI DOKUMENT (TDD)</a:t>
+            <a:t>TEHNIČNI DOKUMENT (TDD) / PRODUKCIJSKA</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" baseline="0"/>
+            <a:t> POT</a:t>
+          </a:r>
+          <a:endParaRPr lang="sl-SI" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -513,7 +517,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>PROTOTIP</a:t>
+            <a:t>NAČRT PROJEKTA</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -623,7 +627,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>IGRA</a:t>
+            <a:t>PROTOTIP / IGRA</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1054,15 +1058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1074,119 +1078,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5631180" y="2745105"/>
-          <a:ext cx="7620" cy="459105"/>
+          <a:off x="5570220" y="2745105"/>
+          <a:ext cx="68580" cy="1068705"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3000000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Pravokotnik 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="845820" y="5318760"/>
-          <a:ext cx="4884420" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>POST PRODUKCIJA</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43814</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Kolenski povezovalnik 64"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="1"/>
-          <a:endCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="3505200" y="3204209"/>
-          <a:ext cx="121920" cy="497205"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -187500"/>
+            <a:gd name="adj1" fmla="val -333333"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1424,8 +1321,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1435,7 +1332,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="1463040" y="4709160"/>
-          <a:ext cx="3810" cy="571500"/>
+          <a:ext cx="3810" cy="678180"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1459,171 +1356,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>268800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>63652</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Pravokotnik 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2585280" y="5580532"/>
-          <a:ext cx="1341120" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>POPRAVKI</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>499501</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>63652</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Pravokotnik 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4157101" y="5580532"/>
-          <a:ext cx="1466459" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>RAZŠIRITVE</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>94132</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>63652</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Pravokotnik 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1013460" y="5580532"/>
-          <a:ext cx="1341120" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="sl-SI" sz="1100"/>
-            <a:t>POSODOBITVE</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2472,16 +2204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2490,8 +2222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3627120" y="3531870"/>
-          <a:ext cx="960120" cy="339090"/>
+          <a:off x="2880360" y="3688080"/>
+          <a:ext cx="807720" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,8 +2265,8 @@
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>255270</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
@@ -2548,8 +2280,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1731645" y="3286125"/>
-          <a:ext cx="285750" cy="419100"/>
+          <a:off x="2352675" y="2665095"/>
+          <a:ext cx="285750" cy="1661160"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2579,63 +2311,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Kolenski povezovalnik 61"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4587240" y="3329940"/>
-          <a:ext cx="251460" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>2442</xdr:rowOff>
     </xdr:to>
@@ -2649,13 +2332,235 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2926764" y="3028266"/>
-          <a:ext cx="337722" cy="2023110"/>
+          <a:off x="2553384" y="3477846"/>
+          <a:ext cx="261522" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>53513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Pravokotnik 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="5421457"/>
+          <a:ext cx="4610100" cy="301336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100"/>
+            <a:t>POSODOBITVE, RAZŠIRITVE,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" baseline="0"/>
+            <a:t> POPRAVKI</a:t>
+          </a:r>
+          <a:endParaRPr lang="sl-SI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175433</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Pravokotnik 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1021080" y="5909137"/>
+          <a:ext cx="4610100" cy="301336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100"/>
+            <a:t>DOKUMENT ANALIZE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="sl-SI" sz="1100" baseline="0"/>
+            <a:t> RAZVOJA (POSTMORTEM)</a:t>
+          </a:r>
+          <a:endParaRPr lang="sl-SI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Kolenski povezovalnik 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="3"/>
+          <a:endCxn id="68" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="5572125"/>
+          <a:ext cx="12700" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Raven puščični povezovalnik 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="52" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3688080" y="3813810"/>
+          <a:ext cx="274320" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -2970,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
